--- a/MOD07-Ciclos/01 Presentacion/Prueba de Escritorio.xlsx
+++ b/MOD07-Ciclos/01 Presentacion/Prueba de Escritorio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ae_hu\Documents\GitHub\INFO1\MOD07-Ciclos\01 Presentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6A7A8E7-E6CF-4B44-A9DF-5ADA2FEBC9A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31D8AE9B-F2AD-4E76-B43A-02EE2F5B7249}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12450" yWindow="2310" windowWidth="15050" windowHeight="10710" xr2:uid="{0A4A92BC-A0F5-49B3-AFBF-4228F155E84B}"/>
+    <workbookView xWindow="24300" yWindow="4530" windowWidth="9660" windowHeight="7130" xr2:uid="{0A4A92BC-A0F5-49B3-AFBF-4228F155E84B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>bits</t>
   </si>
@@ -45,13 +45,37 @@
   </si>
   <si>
     <t>bits &lt;= 8</t>
+  </si>
+  <si>
+    <t>1 bit(s) -&gt; 2 values.</t>
+  </si>
+  <si>
+    <t>2 bit(s) -&gt; 4 values.</t>
+  </si>
+  <si>
+    <t>3 bit(s) -&gt; 8 values.</t>
+  </si>
+  <si>
+    <t>4 bit(s) -&gt; 16 values.</t>
+  </si>
+  <si>
+    <t>5 bit(s) -&gt; 32 values.</t>
+  </si>
+  <si>
+    <t>6 bit(s) -&gt; 64 values.</t>
+  </si>
+  <si>
+    <t>7 bit(s) -&gt; 128 values.</t>
+  </si>
+  <si>
+    <t>8 bit(s) -&gt; 256 values.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -61,6 +85,27 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Cascadia Code"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Cascadia Code"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Cascadia Code"/>
       <family val="3"/>
@@ -107,13 +152,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -433,155 +484,219 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.08984375" customWidth="1"/>
-    <col min="2" max="2" width="15.6328125" customWidth="1"/>
-    <col min="3" max="3" width="14.26953125" customWidth="1"/>
-    <col min="4" max="4" width="21.90625" customWidth="1"/>
+    <col min="1" max="3" width="13.6328125" customWidth="1"/>
+    <col min="4" max="4" width="31.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16" x14ac:dyDescent="0.4">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:5" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B4" s="3">
+        <v>4</v>
+      </c>
+      <c r="C4" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
+        <v>8</v>
+      </c>
+      <c r="C5" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3">
+        <v>16</v>
+      </c>
+      <c r="C6" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3">
+        <v>32</v>
+      </c>
+      <c r="C7" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3">
+        <v>64</v>
+      </c>
+      <c r="C8" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3">
+        <v>128</v>
+      </c>
+      <c r="C9" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3">
+        <v>256</v>
+      </c>
+      <c r="C10" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
